--- a/files/Step_4_join_the_files_bs_books_and_rating/NYT_bestseller_after_join_by_hand.xlsx
+++ b/files/Step_4_join_the_files_bs_books_and_rating/NYT_bestseller_after_join_by_hand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="22770" windowHeight="8970"/>
+    <workbookView xWindow="270" yWindow="4980" windowWidth="22770" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3040,7 +3040,7 @@
   <dimension ref="A1:H581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G595" sqref="G595"/>
+      <selection activeCell="C171" sqref="B171:C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -15868,7 +15868,7 @@
         <v>15.2</v>
       </c>
       <c r="H493" s="1">
-        <v>10434</v>
+        <v>8</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -16176,8 +16176,8 @@
       <c r="F505" s="1">
         <v>3.96</v>
       </c>
-      <c r="G505" s="1">
-        <v>793821</v>
+      <c r="G505">
+        <v>7126</v>
       </c>
       <c r="H505" s="4">
         <v>6.39</v>
@@ -18075,7 +18075,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G578" s="1">
-        <v>392499</v>
+        <v>3858</v>
       </c>
       <c r="H578" s="4">
         <v>10.27</v>
